--- a/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
+++ b/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>実験名</t>
   </si>
@@ -73,6 +73,18 @@
     <t>exp5</t>
   </si>
   <si>
+    <t>exp6</t>
+  </si>
+  <si>
+    <t>exp7</t>
+  </si>
+  <si>
+    <t>exp8</t>
+  </si>
+  <si>
+    <t>exp9</t>
+  </si>
+  <si>
     <t>distを除く</t>
   </si>
   <si>
@@ -88,6 +100,18 @@
     <t>airをlog, popを除く</t>
   </si>
   <si>
+    <t>airをpopで割る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist追加, hfを除く, airとpop　にlog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfを除く, airとpop　にlog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfを除く, popにlog </t>
+  </si>
+  <si>
     <t>['hf', 'pop', 'urb', 'gdp', 'air', 'detection']</t>
   </si>
   <si>
@@ -97,6 +121,12 @@
     <t>['hf', 'urb', 'gdp', 'air', 'detection']</t>
   </si>
   <si>
+    <t>['hf', 'urb', 'gdp', 'air/pop', 'detection']</t>
+  </si>
+  <si>
+    <t>['pop', 'urb', 'gdp', 'dist', 'air', 'detection']</t>
+  </si>
+  <si>
     <t>[0.1537 0.8463]</t>
   </si>
   <si>
@@ -112,6 +142,18 @@
     <t>[0.4004 0.5996]</t>
   </si>
   <si>
+    <t>[0.3883 0.6117]</t>
+  </si>
+  <si>
+    <t>[0.41 0.59]</t>
+  </si>
+  <si>
+    <t>[0.4045 0.5955]</t>
+  </si>
+  <si>
+    <t>[0.1541 0.8459]</t>
+  </si>
+  <si>
     <t>[27.6698 68.8515]</t>
   </si>
   <si>
@@ -127,6 +169,18 @@
     <t>[60.1754 68.6457]</t>
   </si>
   <si>
+    <t>[58.5304 68.9617]</t>
+  </si>
+  <si>
+    <t>[61.3303 68.1958]</t>
+  </si>
+  <si>
+    <t>[60.6061 68.3843]</t>
+  </si>
+  <si>
+    <t>[29.4504 69.1236]</t>
+  </si>
+  <si>
     <t>[ 27.2793 104.277 ]</t>
   </si>
   <si>
@@ -142,16 +196,52 @@
     <t>[624.5941  69.3982]</t>
   </si>
   <si>
+    <t>[613.6663  70.7774]</t>
+  </si>
+  <si>
+    <t>[633.3448  68.5459]</t>
+  </si>
+  <si>
+    <t>[628.2771  69.0608]</t>
+  </si>
+  <si>
+    <t>[ 32.1549 103.1893]</t>
+  </si>
+  <si>
     <t>[ 60.2796  -2.7849  -0.1731   4.239   -3.1351 -14.7137  -3.8222]</t>
   </si>
   <si>
     <t>[ 60.1754  -2.7704   4.3617  -2.9928 -14.9131  -3.8164]</t>
   </si>
   <si>
+    <t>[ 58.5304   1.0377   5.1319  -3.9286 -10.3623 -10.5017]</t>
+  </si>
+  <si>
+    <t>[61.3303 -3.4435 -0.1987 -3.2971  6.4895 -9.1889 -4.8082]</t>
+  </si>
+  <si>
+    <t>[ 60.6061  -3.2979   3.2741  -5.3642 -11.8379  -4.942 ]</t>
+  </si>
+  <si>
+    <t>[29.4504 -0.8967  1.0295 -0.7721 -0.3536 -0.9019]</t>
+  </si>
+  <si>
     <t>[68.1287 -0.6008 -4.8854 -3.0045 -1.8695 -0.6349 -2.0749]</t>
   </si>
   <si>
     <t>[68.6457 -0.1116 -2.7087 -1.3936 -1.8099 -2.3139]</t>
+  </si>
+  <si>
+    <t>[68.9617  0.1928 -3.2735 -1.8958  0.0843 -2.9653]</t>
+  </si>
+  <si>
+    <t>[68.1958 -2.099  -3.8564 -1.719   1.5812 -0.2728 -1.9771]</t>
+  </si>
+  <si>
+    <t>[68.3843 -2.127  -3.0444 -2.5123 -0.4798 -2.1524]</t>
+  </si>
+  <si>
+    <t>[69.1236 -3.2234 -4.0578 -3.2646  2.8117 -2.9449]</t>
   </si>
 </sst>
 </file>
@@ -509,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,19 +654,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>-570.2363</v>
@@ -602,19 +692,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>-571.6165999999999</v>
@@ -640,19 +730,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>-569.7573</v>
@@ -678,19 +768,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>-577.933</v>
@@ -711,10 +801,10 @@
         <v>9.792400000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -722,19 +812,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>-580.1808</v>
@@ -755,10 +845,186 @@
         <v>10.0265</v>
       </c>
       <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>-584.4343</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>1200.8686</v>
+      </c>
+      <c r="J7">
+        <v>0.3816</v>
+      </c>
+      <c r="K7">
+        <v>14.3051</v>
+      </c>
+      <c r="L7">
+        <v>10.6002</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>-576.4673</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>1188.9346</v>
+      </c>
+      <c r="J8">
+        <v>0.5399</v>
+      </c>
+      <c r="K8">
+        <v>12.3398</v>
+      </c>
+      <c r="L8">
+        <v>9.016</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>-578.8852000000001</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>1189.7704</v>
+      </c>
+      <c r="J9">
+        <v>0.5034999999999999</v>
+      </c>
+      <c r="K9">
+        <v>12.8185</v>
+      </c>
+      <c r="L9">
+        <v>9.636699999999999</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>-571.7739</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>1175.5479</v>
+      </c>
+      <c r="J10">
+        <v>0.3027</v>
+      </c>
+      <c r="K10">
+        <v>15.1905</v>
+      </c>
+      <c r="L10">
+        <v>11.1898</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
+++ b/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masanoritakahashi/Documents/講義/ゼミ/M2/空間生存時間/COVID-19/notebook/混合分布モデル/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24A2AE-BE30-1146-9CAA-07A22500BEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -247,12 +253,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -260,17 +266,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -300,22 +319,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -357,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +417,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,6 +469,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,14 +662,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="54.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +745,7 @@
         <v>55</v>
       </c>
       <c r="G2">
-        <v>-570.2363</v>
+        <v>-570.23630000000003</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -678,7 +754,7 @@
         <v>1176.4727</v>
       </c>
       <c r="J2">
-        <v>0.2295</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="K2">
         <v>15.9681</v>
@@ -707,13 +783,13 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>-571.6165999999999</v>
+        <v>-571.61659999999995</v>
       </c>
       <c r="H3">
         <v>16</v>
       </c>
       <c r="I3">
-        <v>1175.2333</v>
+        <v>1175.2333000000001</v>
       </c>
       <c r="J3">
         <v>0.2366</v>
@@ -722,7 +798,7 @@
         <v>15.8941</v>
       </c>
       <c r="L3">
-        <v>11.5919</v>
+        <v>11.591900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -745,22 +821,22 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>-569.7573</v>
+        <v>-569.75729999999999</v>
       </c>
       <c r="H4">
         <v>18</v>
       </c>
       <c r="I4">
-        <v>1175.5147</v>
+        <v>1175.5146999999999</v>
       </c>
       <c r="J4">
-        <v>0.3071</v>
+        <v>0.30709999999999998</v>
       </c>
       <c r="K4">
-        <v>15.143</v>
+        <v>15.143000000000001</v>
       </c>
       <c r="L4">
-        <v>11.2283</v>
+        <v>11.228300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -783,7 +859,7 @@
         <v>58</v>
       </c>
       <c r="G5">
-        <v>-577.933</v>
+        <v>-577.93299999999999</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -792,13 +868,13 @@
         <v>1191.8659</v>
       </c>
       <c r="J5">
-        <v>0.4999</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="K5">
         <v>12.8642</v>
       </c>
       <c r="L5">
-        <v>9.792400000000001</v>
+        <v>9.7924000000000007</v>
       </c>
       <c r="M5" t="s">
         <v>64</v>
@@ -827,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="G6">
-        <v>-580.1808</v>
+        <v>-580.18079999999998</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -836,7 +912,7 @@
         <v>1192.3616</v>
       </c>
       <c r="J6">
-        <v>0.4802</v>
+        <v>0.48020000000000002</v>
       </c>
       <c r="K6">
         <v>13.1153</v>
@@ -871,7 +947,7 @@
         <v>60</v>
       </c>
       <c r="G7">
-        <v>-584.4343</v>
+        <v>-584.43430000000001</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -880,13 +956,13 @@
         <v>1200.8686</v>
       </c>
       <c r="J7">
-        <v>0.3816</v>
+        <v>0.38159999999999999</v>
       </c>
       <c r="K7">
-        <v>14.3051</v>
+        <v>14.305099999999999</v>
       </c>
       <c r="L7">
-        <v>10.6002</v>
+        <v>10.600199999999999</v>
       </c>
       <c r="M7" t="s">
         <v>66</v>
@@ -915,7 +991,7 @@
         <v>61</v>
       </c>
       <c r="G8">
-        <v>-576.4673</v>
+        <v>-576.46730000000002</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -924,7 +1000,7 @@
         <v>1188.9346</v>
       </c>
       <c r="J8">
-        <v>0.5399</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="K8">
         <v>12.3398</v>
@@ -959,22 +1035,22 @@
         <v>62</v>
       </c>
       <c r="G9">
-        <v>-578.8852000000001</v>
+        <v>-578.88520000000005</v>
       </c>
       <c r="H9">
         <v>16</v>
       </c>
       <c r="I9">
-        <v>1189.7704</v>
+        <v>1189.7704000000001</v>
       </c>
       <c r="J9">
-        <v>0.5034999999999999</v>
+        <v>0.50349999999999995</v>
       </c>
       <c r="K9">
         <v>12.8185</v>
       </c>
       <c r="L9">
-        <v>9.636699999999999</v>
+        <v>9.6366999999999994</v>
       </c>
       <c r="M9" t="s">
         <v>68</v>
@@ -1003,7 +1079,7 @@
         <v>63</v>
       </c>
       <c r="G10">
-        <v>-571.7739</v>
+        <v>-571.77390000000003</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -1012,7 +1088,7 @@
         <v>1175.5479</v>
       </c>
       <c r="J10">
-        <v>0.3027</v>
+        <v>0.30270000000000002</v>
       </c>
       <c r="K10">
         <v>15.1905</v>
@@ -1028,6 +1104,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
+++ b/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masanoritakahashi/Documents/講義/ゼミ/M2/空間生存時間/COVID-19/notebook/混合分布モデル/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24A2AE-BE30-1146-9CAA-07A22500BEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
   <si>
     <t>実験名</t>
   </si>
@@ -91,6 +85,45 @@
     <t>exp9</t>
   </si>
   <si>
+    <t>exp10</t>
+  </si>
+  <si>
+    <t>exp11</t>
+  </si>
+  <si>
+    <t>exp12</t>
+  </si>
+  <si>
+    <t>exp13</t>
+  </si>
+  <si>
+    <t>exp14</t>
+  </si>
+  <si>
+    <t>exp15</t>
+  </si>
+  <si>
+    <t>exp16</t>
+  </si>
+  <si>
+    <t>exp17</t>
+  </si>
+  <si>
+    <t>exp18</t>
+  </si>
+  <si>
+    <t>exp19</t>
+  </si>
+  <si>
+    <t>exp20</t>
+  </si>
+  <si>
+    <t>exp21</t>
+  </si>
+  <si>
+    <t>exp22</t>
+  </si>
+  <si>
     <t>distを除く</t>
   </si>
   <si>
@@ -118,6 +151,45 @@
     <t xml:space="preserve">hfを除く, popにlog </t>
   </si>
   <si>
+    <t xml:space="preserve">年齢中央値、HDI、人口密度の追加 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">distを除く、年齢中央値、HDI、人口密度の追加 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfを除く、年齢中央値、HDI、人口密度の追加 </t>
+  </si>
+  <si>
+    <t>dist/hfを除く、HDIを追加</t>
+  </si>
+  <si>
+    <t>dist/hfを除く、HDI/median_ageを追加</t>
+  </si>
+  <si>
+    <t>dist/hf/popを除く、HDI/median_ageを追加</t>
+  </si>
+  <si>
+    <t>dist/hf/popを除く、HDI/median_age/population_densityを追加</t>
+  </si>
+  <si>
+    <t>dist/hf/popを除く、HDI/median_age/log_population_densityを追加</t>
+  </si>
+  <si>
+    <t>dist/hf/popを除く、HDI/median_age/lon/latを追加</t>
+  </si>
+  <si>
+    <t>dist/hf/popを除く、HDI/median_age/dist_italyを追加</t>
+  </si>
+  <si>
+    <t>pop/hfを除く、HDI/median_age/dist_italyを追加</t>
+  </si>
+  <si>
+    <t>重力モデル、dist/hf/popを除く、HDI/median_age/dist_italyを追加</t>
+  </si>
+  <si>
+    <t>dist/hf/popを除く、log_air, HDI/median_age/dist_italyを追加</t>
+  </si>
+  <si>
     <t>['hf', 'pop', 'urb', 'gdp', 'air', 'detection']</t>
   </si>
   <si>
@@ -133,6 +205,36 @@
     <t>['pop', 'urb', 'gdp', 'dist', 'air', 'detection']</t>
   </si>
   <si>
+    <t>['hf', 'pop', 'urb', 'gdp', 'dist', 'air', 'detection', 'median_age', 'HDI', 'population_density']</t>
+  </si>
+  <si>
+    <t>['hf', 'pop', 'urb', 'gdp', 'air', 'detection', 'median_age', 'HDI', 'population_density']</t>
+  </si>
+  <si>
+    <t>['pop', 'urb', 'gdp', 'air', 'detection', 'median_age', 'HDI', 'population_density']</t>
+  </si>
+  <si>
+    <t>['pop', 'urb', 'gdp', 'air', 'detection', 'HDI']</t>
+  </si>
+  <si>
+    <t>['pop', 'urb', 'gdp', 'air', 'detection', 'HDI', 'median_age']</t>
+  </si>
+  <si>
+    <t>['urb', 'gdp', 'air', 'detection', 'HDI', 'median_age']</t>
+  </si>
+  <si>
+    <t>['urb', 'gdp', 'air', 'detection', 'HDI', 'median_age', 'population_density']</t>
+  </si>
+  <si>
+    <t>['urb', 'gdp', 'air', 'detection', 'HDI', 'median_age', 'lon', 'lat']</t>
+  </si>
+  <si>
+    <t>['urb', 'gdp', 'air', 'detection', 'HDI', 'median_age', 'dist_italy']</t>
+  </si>
+  <si>
+    <t>['dist', 'urb', 'gdp', 'air', 'detection', 'HDI', 'median_age', 'dist_italy']</t>
+  </si>
+  <si>
     <t>[0.1537 0.8463]</t>
   </si>
   <si>
@@ -160,6 +262,39 @@
     <t>[0.1541 0.8459]</t>
   </si>
   <si>
+    <t>[0.4034 0.5966]</t>
+  </si>
+  <si>
+    <t>[0.1545 0.8455]</t>
+  </si>
+  <si>
+    <t>[0.1544 0.8456]</t>
+  </si>
+  <si>
+    <t>[0.1546 0.8454]</t>
+  </si>
+  <si>
+    <t>[0.1548 0.8452]</t>
+  </si>
+  <si>
+    <t>[0.1547 0.8453]</t>
+  </si>
+  <si>
+    <t>[0.4011 0.5989]</t>
+  </si>
+  <si>
+    <t>[0.1551 0.8449]</t>
+  </si>
+  <si>
+    <t>[0.403 0.597]</t>
+  </si>
+  <si>
+    <t>[0.7345 0.2655]</t>
+  </si>
+  <si>
+    <t>[0.3989 0.6011]</t>
+  </si>
+  <si>
     <t>[27.6698 68.8515]</t>
   </si>
   <si>
@@ -187,6 +322,45 @@
     <t>[29.4504 69.1236]</t>
   </si>
   <si>
+    <t>[60.4071 68.2961]</t>
+  </si>
+  <si>
+    <t>[26.6521 68.6662]</t>
+  </si>
+  <si>
+    <t>[26.4789 68.5897]</t>
+  </si>
+  <si>
+    <t>[26.9639 68.7072]</t>
+  </si>
+  <si>
+    <t>[26.6494 68.669 ]</t>
+  </si>
+  <si>
+    <t>[27.8247 68.721 ]</t>
+  </si>
+  <si>
+    <t>[27.7851 68.5159]</t>
+  </si>
+  <si>
+    <t>[28.129  68.6133]</t>
+  </si>
+  <si>
+    <t>[60.1054 68.3915]</t>
+  </si>
+  <si>
+    <t>[29.288  68.9375]</t>
+  </si>
+  <si>
+    <t>[60.5314 68.4583]</t>
+  </si>
+  <si>
+    <t>[4.224  3.9423]</t>
+  </si>
+  <si>
+    <t>[59.9395 68.6815]</t>
+  </si>
+  <si>
     <t>[ 27.2793 104.277 ]</t>
   </si>
   <si>
@@ -214,6 +388,45 @@
     <t>[ 32.1549 103.1893]</t>
   </si>
   <si>
+    <t>[627.904   67.3883]</t>
+  </si>
+  <si>
+    <t>[ 27.43   103.5213]</t>
+  </si>
+  <si>
+    <t>[ 27.6518 103.8471]</t>
+  </si>
+  <si>
+    <t>[ 27.1682 103.2954]</t>
+  </si>
+  <si>
+    <t>[ 27.4334 103.5123]</t>
+  </si>
+  <si>
+    <t>[ 27.4387 103.051 ]</t>
+  </si>
+  <si>
+    <t>[ 27.3842 103.777 ]</t>
+  </si>
+  <si>
+    <t>[ 27.8872 103.3562]</t>
+  </si>
+  <si>
+    <t>[625.6459  67.5831]</t>
+  </si>
+  <si>
+    <t>[ 31.4185 102.1719]</t>
+  </si>
+  <si>
+    <t>[628.2457  67.3004]</t>
+  </si>
+  <si>
+    <t>[0.0166 0.3403]</t>
+  </si>
+  <si>
+    <t>[622.8187  67.7009]</t>
+  </si>
+  <si>
     <t>[ 60.2796  -2.7849  -0.1731   4.239   -3.1351 -14.7137  -3.8222]</t>
   </si>
   <si>
@@ -232,6 +445,48 @@
     <t>[29.4504 -0.8967  1.0295 -0.7721 -0.3536 -0.9019]</t>
   </si>
   <si>
+    <t>[ 60.4071   1.0292  -1.6483   1.6684   1.8686   9.358   -2.1539  -7.0749
+   0.726  -11.5978  -1.3325]</t>
+  </si>
+  <si>
+    <t>[26.6521  5.2066  0.6901 -2.5604  2.1189 -1.2172 -2.2796 -5.5646  5.7137
+ -0.8042]</t>
+  </si>
+  <si>
+    <t>[26.4789  0.7257 -1.7317  1.9382 -1.1878 -0.4608 -3.5842  5.8755 -0.7048]</t>
+  </si>
+  <si>
+    <t>[26.9639  0.519  -0.4656 -0.4474 -0.7274 -1.2894  3.3009]</t>
+  </si>
+  <si>
+    <t>[26.6494  0.6565 -1.0796 -0.9199 -0.9232 -1.0517  8.4942 -4.0207]</t>
+  </si>
+  <si>
+    <t>[27.8247 -0.4503 -1.2336 -0.6115 -1.2998  6.7322 -3.3871]</t>
+  </si>
+  <si>
+    <t>[27.7851 -0.915   0.9999 -0.7946 -0.8526  4.5166 -2.9894 -0.5568]</t>
+  </si>
+  <si>
+    <t>[28.129  -0.4061 -1.0243 -0.6146 -1.426   6.1491 -3.0817 -0.304 ]</t>
+  </si>
+  <si>
+    <t>[ 6.01054e+01  2.97950e+00 -2.30000e-03 -3.26420e+00 -6.91380e+00
+ -1.04654e+01  1.43220e+00 -8.41690e+00 -3.59150e+00]</t>
+  </si>
+  <si>
+    <t>[29.288  -1.1209  0.4528 -0.8783  1.4232  6.4315 -8.0357 -4.1143]</t>
+  </si>
+  <si>
+    <t>[60.5314 10.7684  0.4372  0.9072 -2.5906 -5.9958 -7.1424 -2.4568 -3.7734]</t>
+  </si>
+  <si>
+    <t>[ 4.224  -0.0331 -0.0406 -0.0325 -0.0303  0.0149  0.005   0.0536]</t>
+  </si>
+  <si>
+    <t>[ 59.9395   5.6228  -2.1784 -12.8041  -4.1136  -1.5906  -4.728   -1.9448]</t>
+  </si>
+  <si>
     <t>[68.1287 -0.6008 -4.8854 -3.0045 -1.8695 -0.6349 -2.0749]</t>
   </si>
   <si>
@@ -248,17 +503,61 @@
   </si>
   <si>
     <t>[69.1236 -3.2234 -4.0578 -3.2646  2.8117 -2.9449]</t>
+  </si>
+  <si>
+    <t>[ 6.82961e+01  5.20800e-01 -6.51510e+00 -2.73540e+00 -1.01600e+00
+  9.91700e-01  3.27520e+00 -2.01240e+00 -1.59210e+00 -1.29100e+00
+ -4.73000e-02]</t>
+  </si>
+  <si>
+    <t>[68.6662  1.4313 -8.6195 -1.9923 -1.242   5.0317 -2.741  -1.3503 -3.7221
+ -0.8228]</t>
+  </si>
+  <si>
+    <t>[68.5897 -9.4894 -2.3253 -1.3225  5.1422 -2.3979 -1.0283 -2.9722 -0.772 ]</t>
+  </si>
+  <si>
+    <t>[68.7072 -9.6864 -2.0843 -1.3852  5.5499 -2.4582 -4.0498]</t>
+  </si>
+  <si>
+    <t>[68.669  -9.6678 -2.3227 -1.3965  5.3491 -2.3792 -2.9751 -1.0335]</t>
+  </si>
+  <si>
+    <t>[68.721  -2.5619 -0.399  -1.6806 -2.7557 -2.0686 -1.0439]</t>
+  </si>
+  <si>
+    <t>[68.5159 -2.5515 -0.2518 -1.8862 -2.7823 -2.111  -1.0246 -2.0083]</t>
+  </si>
+  <si>
+    <t>[ 6.86133e+01 -2.77270e+00  3.90000e-02 -1.84580e+00 -2.64490e+00
+ -2.59250e+00 -5.85200e-01 -1.60660e+00]</t>
+  </si>
+  <si>
+    <t>[68.3915 -3.2837 -0.1232 -1.6355 -2.159  -0.4663 -0.306  -0.9047 -2.0569]</t>
+  </si>
+  <si>
+    <t>[68.9375 -2.3921  0.3283 -1.9478 -2.6202 -4.4603  1.3872  2.393 ]</t>
+  </si>
+  <si>
+    <t>[ 6.84583e+01  9.67300e-01 -2.99110e+00  3.44000e-02 -1.66760e+00
+ -2.09700e+00 -1.63840e+00 -6.76000e-02  1.48880e+00]</t>
+  </si>
+  <si>
+    <t>[ 3.9423  0.1561 -0.0391 -0.3244 -0.0956  0.0823 -0.214  -0.0338]</t>
+  </si>
+  <si>
+    <t>[68.6815 -2.2806 -0.1401 -2.086  -1.7941 -1.1471 -0.2845  2.119 ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -266,30 +565,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -319,31 +605,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,27 +694,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,24 +728,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,26 +903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,22 +959,22 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G2">
-        <v>-570.23630000000003</v>
+        <v>-570.2363</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -754,7 +983,7 @@
         <v>1176.4727</v>
       </c>
       <c r="J2">
-        <v>0.22950000000000001</v>
+        <v>0.2295</v>
       </c>
       <c r="K2">
         <v>15.9681</v>
@@ -768,28 +997,28 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G3">
-        <v>-571.61659999999995</v>
+        <v>-571.6165999999999</v>
       </c>
       <c r="H3">
         <v>16</v>
       </c>
       <c r="I3">
-        <v>1175.2333000000001</v>
+        <v>1175.2333</v>
       </c>
       <c r="J3">
         <v>0.2366</v>
@@ -798,7 +1027,7 @@
         <v>15.8941</v>
       </c>
       <c r="L3">
-        <v>11.591900000000001</v>
+        <v>11.5919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -806,37 +1035,37 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="G4">
-        <v>-569.75729999999999</v>
+        <v>-569.7573</v>
       </c>
       <c r="H4">
         <v>18</v>
       </c>
       <c r="I4">
-        <v>1175.5146999999999</v>
+        <v>1175.5147</v>
       </c>
       <c r="J4">
-        <v>0.30709999999999998</v>
+        <v>0.3071</v>
       </c>
       <c r="K4">
-        <v>15.143000000000001</v>
+        <v>15.143</v>
       </c>
       <c r="L4">
-        <v>11.228300000000001</v>
+        <v>11.2283</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -844,22 +1073,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="G5">
-        <v>-577.93299999999999</v>
+        <v>-577.933</v>
       </c>
       <c r="H5">
         <v>18</v>
@@ -868,19 +1097,19 @@
         <v>1191.8659</v>
       </c>
       <c r="J5">
-        <v>0.49990000000000001</v>
+        <v>0.4999</v>
       </c>
       <c r="K5">
         <v>12.8642</v>
       </c>
       <c r="L5">
-        <v>9.7924000000000007</v>
+        <v>9.792400000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -888,22 +1117,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="G6">
-        <v>-580.18079999999998</v>
+        <v>-580.1808</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -912,7 +1141,7 @@
         <v>1192.3616</v>
       </c>
       <c r="J6">
-        <v>0.48020000000000002</v>
+        <v>0.4802</v>
       </c>
       <c r="K6">
         <v>13.1153</v>
@@ -921,10 +1150,10 @@
         <v>10.0265</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -932,22 +1161,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G7">
-        <v>-584.43430000000001</v>
+        <v>-584.4343</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -956,19 +1185,19 @@
         <v>1200.8686</v>
       </c>
       <c r="J7">
-        <v>0.38159999999999999</v>
+        <v>0.3816</v>
       </c>
       <c r="K7">
-        <v>14.305099999999999</v>
+        <v>14.3051</v>
       </c>
       <c r="L7">
-        <v>10.600199999999999</v>
+        <v>10.6002</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -976,22 +1205,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="G8">
-        <v>-576.46730000000002</v>
+        <v>-576.4673</v>
       </c>
       <c r="H8">
         <v>18</v>
@@ -1000,7 +1229,7 @@
         <v>1188.9346</v>
       </c>
       <c r="J8">
-        <v>0.53990000000000005</v>
+        <v>0.5399</v>
       </c>
       <c r="K8">
         <v>12.3398</v>
@@ -1009,10 +1238,10 @@
         <v>9.016</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1020,43 +1249,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="G9">
-        <v>-578.88520000000005</v>
+        <v>-578.8852000000001</v>
       </c>
       <c r="H9">
         <v>16</v>
       </c>
       <c r="I9">
-        <v>1189.7704000000001</v>
+        <v>1189.7704</v>
       </c>
       <c r="J9">
-        <v>0.50349999999999995</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="K9">
         <v>12.8185</v>
       </c>
       <c r="L9">
-        <v>9.6366999999999994</v>
+        <v>9.636699999999999</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1064,22 +1293,22 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="G10">
-        <v>-571.77390000000003</v>
+        <v>-571.7739</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -1088,7 +1317,7 @@
         <v>1175.5479</v>
       </c>
       <c r="J10">
-        <v>0.30270000000000002</v>
+        <v>0.3027</v>
       </c>
       <c r="K10">
         <v>15.1905</v>
@@ -1097,14 +1326,585 @@
         <v>11.1898</v>
       </c>
       <c r="M10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11">
+        <v>-570.407</v>
+      </c>
+      <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>1192.8139</v>
+      </c>
+      <c r="J11">
+        <v>0.4905</v>
+      </c>
+      <c r="K11">
+        <v>12.9625</v>
+      </c>
+      <c r="L11">
+        <v>9.4788</v>
+      </c>
+      <c r="M11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12">
+        <v>-560.2483999999999</v>
+      </c>
+      <c r="H12">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>1168.4969</v>
+      </c>
+      <c r="J12">
+        <v>0.2573</v>
+      </c>
+      <c r="K12">
+        <v>15.6494</v>
+      </c>
+      <c r="L12">
+        <v>11.3822</v>
+      </c>
+      <c r="M12" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13">
+        <v>-562.7602000000001</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>1169.5205</v>
+      </c>
+      <c r="J13">
+        <v>0.2424</v>
+      </c>
+      <c r="K13">
+        <v>15.8059</v>
+      </c>
+      <c r="L13">
+        <v>11.609</v>
+      </c>
+      <c r="M13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14">
+        <v>-564.2832</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>1164.5664</v>
+      </c>
+      <c r="J14">
+        <v>0.2241</v>
+      </c>
+      <c r="K14">
+        <v>15.9954</v>
+      </c>
+      <c r="L14">
+        <v>11.6861</v>
+      </c>
+      <c r="M14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
+        <v>-563.2126</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>1166.4251</v>
+      </c>
+      <c r="J15">
+        <v>0.228</v>
+      </c>
+      <c r="K15">
+        <v>15.955</v>
+      </c>
+      <c r="L15">
+        <v>11.7005</v>
+      </c>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16">
+        <v>-567.9304</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>1171.8607</v>
+      </c>
+      <c r="J16">
+        <v>0.3274</v>
+      </c>
+      <c r="K16">
+        <v>14.893</v>
+      </c>
+      <c r="L16">
+        <v>11.2516</v>
+      </c>
+      <c r="M16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="N10" t="s">
-        <v>75</v>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17">
+        <v>-566.2907</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>1172.5814</v>
+      </c>
+      <c r="J17">
+        <v>0.35</v>
+      </c>
+      <c r="K17">
+        <v>14.6403</v>
+      </c>
+      <c r="L17">
+        <v>11.0354</v>
+      </c>
+      <c r="M17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18">
+        <v>-566.4044</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>1172.8089</v>
+      </c>
+      <c r="J18">
+        <v>0.3524</v>
+      </c>
+      <c r="K18">
+        <v>14.6132</v>
+      </c>
+      <c r="L18">
+        <v>10.9789</v>
+      </c>
+      <c r="M18" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19">
+        <v>-572.6736</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>1189.3472</v>
+      </c>
+      <c r="J19">
+        <v>0.4869</v>
+      </c>
+      <c r="K19">
+        <v>13.0071</v>
+      </c>
+      <c r="L19">
+        <v>9.6058</v>
+      </c>
+      <c r="M19" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20">
+        <v>-560.6038</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>1161.2076</v>
+      </c>
+      <c r="J20">
+        <v>0.3088</v>
+      </c>
+      <c r="K20">
+        <v>15.0974</v>
+      </c>
+      <c r="L20">
+        <v>11.0973</v>
+      </c>
+      <c r="M20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21">
+        <v>-571.9342</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>1187.8684</v>
+      </c>
+      <c r="J21">
+        <v>0.4995</v>
+      </c>
+      <c r="K21">
+        <v>12.8474</v>
+      </c>
+      <c r="L21">
+        <v>9.521100000000001</v>
+      </c>
+      <c r="M21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22">
+        <v>41.4354</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-42.8708</v>
+      </c>
+      <c r="J22">
+        <v>0.3641</v>
+      </c>
+      <c r="K22">
+        <v>0.3029</v>
+      </c>
+      <c r="L22">
+        <v>0.1979</v>
+      </c>
+      <c r="M22" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23">
+        <v>-570.3192</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>1180.6384</v>
+      </c>
+      <c r="J23">
+        <v>0.4905</v>
+      </c>
+      <c r="K23">
+        <v>12.9618</v>
+      </c>
+      <c r="L23">
+        <v>9.8161</v>
+      </c>
+      <c r="M23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
+++ b/notebook/混合分布モデル/output/2成分混合回帰実験管理.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="239">
   <si>
     <t>実験名</t>
   </si>
@@ -124,6 +124,33 @@
     <t>exp22</t>
   </si>
   <si>
+    <t>exp23</t>
+  </si>
+  <si>
+    <t>exp24</t>
+  </si>
+  <si>
+    <t>exp25</t>
+  </si>
+  <si>
+    <t>exp26</t>
+  </si>
+  <si>
+    <t>exp27</t>
+  </si>
+  <si>
+    <t>exp28</t>
+  </si>
+  <si>
+    <t>exp29</t>
+  </si>
+  <si>
+    <t>exp30</t>
+  </si>
+  <si>
+    <t>exp31</t>
+  </si>
+  <si>
     <t>distを除く</t>
   </si>
   <si>
@@ -190,6 +217,33 @@
     <t>dist/hf/popを除く、log_air, HDI/median_age/dist_italyを追加</t>
   </si>
   <si>
+    <t>dist*airの交互作用</t>
+  </si>
+  <si>
+    <t>dist*airの交互作用, HDIの追加</t>
+  </si>
+  <si>
+    <t>dist*airの交互作用, HFを除く、HDIの追加</t>
+  </si>
+  <si>
+    <t>distとの交互作用</t>
+  </si>
+  <si>
+    <t>distとhf, air交互作用</t>
+  </si>
+  <si>
+    <t>distとgdp, air交互作用</t>
+  </si>
+  <si>
+    <t>distとgdp, air交互作用、log_pop</t>
+  </si>
+  <si>
+    <t>distとgdp, air交互作用、popの代わりにpopulation_density追加</t>
+  </si>
+  <si>
+    <t>distとgdp, air交互作用、popの代わりにlog_population_density追加</t>
+  </si>
+  <si>
     <t>['hf', 'pop', 'urb', 'gdp', 'air', 'detection']</t>
   </si>
   <si>
@@ -235,6 +289,27 @@
     <t>['dist', 'urb', 'gdp', 'air', 'detection', 'HDI', 'median_age', 'dist_italy']</t>
   </si>
   <si>
+    <t>['hf', 'pop', 'urb', 'gdp', 'dist_air', 'detection']</t>
+  </si>
+  <si>
+    <t>['hf', 'pop', 'urb', 'gdp', 'dist_air', 'detection', 'HDI']</t>
+  </si>
+  <si>
+    <t>['pop', 'urb', 'gdp', 'dist_air', 'detection', 'HDI']</t>
+  </si>
+  <si>
+    <t>['dist_hf', 'dist_pop', 'dist_urb', 'dist_gdp', 'dist_air', 'dist_detection', 'dist_HDI']</t>
+  </si>
+  <si>
+    <t>['dist_hf', 'pop', 'urb', 'gdp', 'dist_air', 'detection']</t>
+  </si>
+  <si>
+    <t>['pop', 'urb', 'dist_gdp', 'dist_air', 'detection']</t>
+  </si>
+  <si>
+    <t>['population_density', 'urb', 'dist_gdp', 'dist_air', 'detection']</t>
+  </si>
+  <si>
     <t>[0.1537 0.8463]</t>
   </si>
   <si>
@@ -295,6 +370,15 @@
     <t>[0.3989 0.6011]</t>
   </si>
   <si>
+    <t>[0.3962 0.6038]</t>
+  </si>
+  <si>
+    <t>[0.4052 0.5948]</t>
+  </si>
+  <si>
+    <t>[0.1549 0.8451]</t>
+  </si>
+  <si>
     <t>[27.6698 68.8515]</t>
   </si>
   <si>
@@ -361,6 +445,33 @@
     <t>[59.9395 68.6815]</t>
   </si>
   <si>
+    <t>[27.8327 68.5757]</t>
+  </si>
+  <si>
+    <t>[27.3258 68.5556]</t>
+  </si>
+  <si>
+    <t>[27.1397 68.4879]</t>
+  </si>
+  <si>
+    <t>[59.565  68.8884]</t>
+  </si>
+  <si>
+    <t>[60.4827 68.1199]</t>
+  </si>
+  <si>
+    <t>[27.5037 68.8276]</t>
+  </si>
+  <si>
+    <t>[27.6246 69.1297]</t>
+  </si>
+  <si>
+    <t>[28.4258 68.8237]</t>
+  </si>
+  <si>
+    <t>[27.8545 68.886 ]</t>
+  </si>
+  <si>
     <t>[ 27.2793 104.277 ]</t>
   </si>
   <si>
@@ -425,6 +536,33 @@
   </si>
   <si>
     <t>[622.8187  67.7009]</t>
+  </si>
+  <si>
+    <t>[ 27.4417 103.5476]</t>
+  </si>
+  <si>
+    <t>[ 27.092  103.7376]</t>
+  </si>
+  <si>
+    <t>[ 27.0877 104.0417]</t>
+  </si>
+  <si>
+    <t>[618.5299  67.9932]</t>
+  </si>
+  <si>
+    <t>[628.6449  67.3672]</t>
+  </si>
+  <si>
+    <t>[ 27.1704 102.7808]</t>
+  </si>
+  <si>
+    <t>[ 27.2628 101.9383]</t>
+  </si>
+  <si>
+    <t>[ 28.521  102.6231]</t>
+  </si>
+  <si>
+    <t>[ 27.4818 102.537 ]</t>
   </si>
   <si>
     <t>[ 60.2796  -2.7849  -0.1731   4.239   -3.1351 -14.7137  -3.8222]</t>
@@ -485,6 +623,34 @@
   </si>
   <si>
     <t>[ 59.9395   5.6228  -2.1784 -12.8041  -4.1136  -1.5906  -4.728   -1.9448]</t>
+  </si>
+  <si>
+    <t>[27.8327  4.003   0.2487 -0.1043 -0.4382 -0.3791 -2.8492]</t>
+  </si>
+  <si>
+    <t>[27.3258  3.7654  0.2982 -0.6258 -0.7539 -0.3719 -3.0593  1.6625]</t>
+  </si>
+  <si>
+    <t>[27.1397  0.3547 -0.2453 -0.8762 -0.3783 -1.6908  3.4467]</t>
+  </si>
+  <si>
+    <t>[ 5.95650e+01  2.49602e+01 -1.86430e+00 -7.04200e-01 -9.59530e+00
+  5.05000e-02 -1.17373e+01 -1.99430e+00]</t>
+  </si>
+  <si>
+    <t>[ 60.4827   9.4627  -2.3422  -1.7971  -4.8532  -0.9935 -11.0954]</t>
+  </si>
+  <si>
+    <t>[27.5037  0.5091 -2.6943  5.5609 -1.6128 -0.7703]</t>
+  </si>
+  <si>
+    <t>[27.6246  0.5883 -2.6772  5.4524 -1.5301 -1.0666]</t>
+  </si>
+  <si>
+    <t>[28.4258 -0.4433 -2.3785  5.2467 -1.4406 -1.2512]</t>
+  </si>
+  <si>
+    <t>[27.8545  0.107  -2.792   5.2869 -1.421  -0.8433]</t>
   </si>
   <si>
     <t>[68.1287 -0.6008 -4.8854 -3.0045 -1.8695 -0.6349 -2.0749]</t>
@@ -547,6 +713,33 @@
   </si>
   <si>
     <t>[68.6815 -2.2806 -0.1401 -2.086  -1.7941 -1.1471 -0.2845  2.119 ]</t>
+  </si>
+  <si>
+    <t>[68.5757 -0.5039 -8.5853 -4.02   -2.5414  5.0269 -3.323 ]</t>
+  </si>
+  <si>
+    <t>[68.5556  1.2157 -8.1432 -1.9485 -1.0292  4.8074 -2.8637 -4.7923]</t>
+  </si>
+  <si>
+    <t>[68.4879 -8.9343 -2.3039 -1.104   5.0259 -2.5643 -3.8711]</t>
+  </si>
+  <si>
+    <t>[68.8884  7.4136 -1.9259 -0.3768 -3.8979  2.3332 -2.9313 -2.8548]</t>
+  </si>
+  <si>
+    <t>[68.1199  1.1369 -4.9921 -3.7338 -1.771   1.8166 -2.7269]</t>
+  </si>
+  <si>
+    <t>[68.8276 -7.9341 -4.5437 -1.5953  5.2543 -3.7679]</t>
+  </si>
+  <si>
+    <t>[69.1297 -2.7318 -4.5876 -1.6776  3.2997 -3.5291]</t>
+  </si>
+  <si>
+    <t>[68.8237 -2.2896 -4.508  -0.2771 -1.0418 -3.8615]</t>
+  </si>
+  <si>
+    <t>[ 6.8886e+01 -1.8150e+00 -4.8612e+00 -3.5200e-02 -1.1981e+00 -3.6522e+00]</t>
   </si>
 </sst>
 </file>
@@ -904,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -959,19 +1152,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>-570.2363</v>
@@ -997,19 +1190,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="G3">
         <v>-571.6165999999999</v>
@@ -1035,19 +1228,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="G4">
         <v>-569.7573</v>
@@ -1073,19 +1266,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G5">
         <v>-577.933</v>
@@ -1106,10 +1299,10 @@
         <v>9.792400000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1117,19 +1310,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="G6">
         <v>-580.1808</v>
@@ -1150,10 +1343,10 @@
         <v>10.0265</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1161,19 +1354,19 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="G7">
         <v>-584.4343</v>
@@ -1194,10 +1387,10 @@
         <v>10.6002</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="N7" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1205,19 +1398,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="G8">
         <v>-576.4673</v>
@@ -1238,10 +1431,10 @@
         <v>9.016</v>
       </c>
       <c r="M8" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1249,19 +1442,19 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="G9">
         <v>-578.8852000000001</v>
@@ -1282,10 +1475,10 @@
         <v>9.636699999999999</v>
       </c>
       <c r="M9" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="N9" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1293,19 +1486,19 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="G10">
         <v>-571.7739</v>
@@ -1326,10 +1519,10 @@
         <v>11.1898</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="N10" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1337,19 +1530,19 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="G11">
         <v>-570.407</v>
@@ -1370,10 +1563,10 @@
         <v>9.4788</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="N11" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1381,19 +1574,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="G12">
         <v>-560.2483999999999</v>
@@ -1414,10 +1607,10 @@
         <v>11.3822</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1425,19 +1618,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="G13">
         <v>-562.7602000000001</v>
@@ -1458,10 +1651,10 @@
         <v>11.609</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1469,19 +1662,19 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="G14">
         <v>-564.2832</v>
@@ -1502,10 +1695,10 @@
         <v>11.6861</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1513,19 +1706,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="G15">
         <v>-563.2126</v>
@@ -1546,10 +1739,10 @@
         <v>11.7005</v>
       </c>
       <c r="M15" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1557,19 +1750,19 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="G16">
         <v>-567.9304</v>
@@ -1590,10 +1783,10 @@
         <v>11.2516</v>
       </c>
       <c r="M16" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1601,19 +1794,19 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="G17">
         <v>-566.2907</v>
@@ -1634,10 +1827,10 @@
         <v>11.0354</v>
       </c>
       <c r="M17" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1645,19 +1838,19 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="G18">
         <v>-566.4044</v>
@@ -1678,10 +1871,10 @@
         <v>10.9789</v>
       </c>
       <c r="M18" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1689,19 +1882,19 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="G19">
         <v>-572.6736</v>
@@ -1722,10 +1915,10 @@
         <v>9.6058</v>
       </c>
       <c r="M19" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1733,19 +1926,19 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G20">
         <v>-560.6038</v>
@@ -1766,10 +1959,10 @@
         <v>11.0973</v>
       </c>
       <c r="M20" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1777,19 +1970,19 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G21">
         <v>-571.9342</v>
@@ -1810,10 +2003,10 @@
         <v>9.521100000000001</v>
       </c>
       <c r="M21" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1821,19 +2014,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="G22">
         <v>41.4354</v>
@@ -1854,10 +2047,10 @@
         <v>0.1979</v>
       </c>
       <c r="M22" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1865,19 +2058,19 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G23">
         <v>-570.3192</v>
@@ -1898,10 +2091,406 @@
         <v>9.8161</v>
       </c>
       <c r="M23" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" t="s">
         <v>174</v>
+      </c>
+      <c r="G24">
+        <v>-566.0198</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>1168.0395</v>
+      </c>
+      <c r="J24">
+        <v>0.2514</v>
+      </c>
+      <c r="K24">
+        <v>15.7119</v>
+      </c>
+      <c r="L24">
+        <v>11.4822</v>
+      </c>
+      <c r="M24" t="s">
+        <v>202</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25">
+        <v>-563.4828</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>1166.9656</v>
+      </c>
+      <c r="J25">
+        <v>0.2764</v>
+      </c>
+      <c r="K25">
+        <v>15.4471</v>
+      </c>
+      <c r="L25">
+        <v>11.2567</v>
+      </c>
+      <c r="M25" t="s">
+        <v>203</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26">
+        <v>-564.9389</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>1165.8777</v>
+      </c>
+      <c r="J26">
+        <v>0.2606</v>
+      </c>
+      <c r="K26">
+        <v>15.6154</v>
+      </c>
+      <c r="L26">
+        <v>11.4704</v>
+      </c>
+      <c r="M26" t="s">
+        <v>204</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27">
+        <v>-583.6473999999999</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>1207.2949</v>
+      </c>
+      <c r="J27">
+        <v>0.3491</v>
+      </c>
+      <c r="K27">
+        <v>14.6511</v>
+      </c>
+      <c r="L27">
+        <v>10.8026</v>
+      </c>
+      <c r="M27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28">
+        <v>-573.7255</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>1183.451</v>
+      </c>
+      <c r="J28">
+        <v>0.4728</v>
+      </c>
+      <c r="K28">
+        <v>13.1857</v>
+      </c>
+      <c r="L28">
+        <v>9.624499999999999</v>
+      </c>
+      <c r="M28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29">
+        <v>-565.6319</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>1163.2637</v>
+      </c>
+      <c r="J29">
+        <v>0.2187</v>
+      </c>
+      <c r="K29">
+        <v>16.0518</v>
+      </c>
+      <c r="L29">
+        <v>11.6978</v>
+      </c>
+      <c r="M29" t="s">
+        <v>207</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30">
+        <v>-566.3409</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>1164.6818</v>
+      </c>
+      <c r="J30">
+        <v>0.2583</v>
+      </c>
+      <c r="K30">
+        <v>15.6391</v>
+      </c>
+      <c r="L30">
+        <v>11.4818</v>
+      </c>
+      <c r="M30" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31">
+        <v>-567.6334000000001</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>1167.2669</v>
+      </c>
+      <c r="J31">
+        <v>0.2956</v>
+      </c>
+      <c r="K31">
+        <v>15.2411</v>
+      </c>
+      <c r="L31">
+        <v>11.2466</v>
+      </c>
+      <c r="M31" t="s">
+        <v>209</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32">
+        <v>-567.4286</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>1166.8572</v>
+      </c>
+      <c r="J32">
+        <v>0.2999</v>
+      </c>
+      <c r="K32">
+        <v>15.1941</v>
+      </c>
+      <c r="L32">
+        <v>11.3338</v>
+      </c>
+      <c r="M32" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
